--- a/data/RNA-seq.xlsx
+++ b/data/RNA-seq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google 雲端硬碟\trey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E263930-6035-44A5-A2D2-5A25CFB0B661}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0108DC04-EF16-413C-A19B-FB7B887ECB58}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{90D3FAAD-9A52-4FD6-ACD6-3EEB3E9CDD1C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>GEO accession</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,13 +83,35 @@
   <si>
     <t>GSE71585</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRP057196</t>
+  </si>
+  <si>
+    <t>SRP064454</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRP033200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRP045452</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRP061902</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,6 +122,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -123,18 +154,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -446,23 +487,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D99CA26-5EF7-4653-8FB0-12437DEE91AC}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -472,8 +516,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -483,8 +530,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -494,8 +544,11 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -505,8 +558,11 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -515,11 +571,18 @@
       </c>
       <c r="C6" t="s">
         <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/sra?term=SRP057196" xr:uid="{97A508F7-9590-4F37-B2B8-1F59DEA47531}"/>
+    <hyperlink ref="D6" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/sra?term=SRP061902" xr:uid="{E5ECCE62-C0C0-4C05-B135-52A993E20C56}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>